--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-986803.3243379432</v>
+        <v>-988784.2409183689</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553597</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14523237.70155986</v>
+        <v>14531686.90647361</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>137.8274396725619</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.671521260316</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>69.40414780104403</v>
+        <v>44.85034555736573</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.31166382140158</v>
       </c>
       <c r="X5" t="n">
-        <v>273.6361929743171</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>85.92645860395749</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>91.88878909795807</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>92.78873042790704</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>195.5243008355346</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>74.09577519992064</v>
       </c>
       <c r="X10" t="n">
-        <v>87.79723570473716</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>130.487262919847</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>267.4082962991047</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>80.37630218413058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>234.5175081001669</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>20.82998177290624</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>42.02510219382468</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>156.5079075832733</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897918</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571499</v>
+        <v>55.21598883571483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>120.2837793276705</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.20383876095981</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898727</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857179</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169286</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329068</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373702</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941884</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898727</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857179</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169286</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329068</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373702</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3597,10 +3597,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522968</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898731</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857183</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692865</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329072</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373706</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789557</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941875</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069505</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224543</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014434</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898728</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885718</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692862</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329069</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373703</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789555</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941874</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224542</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1703.566937845283</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>687.7467178835718</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y2" t="n">
-        <v>2090.166777909405</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2191.96288889382</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>2191.96288889382</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>2191.96288889382</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>2191.96288889382</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2482.860667836385</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>2412.755468037351</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="V4" t="n">
-        <v>2412.755468037351</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>2412.755468037351</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>2412.755468037351</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>2191.96288889382</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="X5" t="n">
-        <v>2111.958421263255</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.819089287443</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.4236418782191</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C7" t="n">
-        <v>484.4236418782191</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>334.3070024658833</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>186.3939088834902</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.4236418782191</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2603.423100687004</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2384.788433659066</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2131.026648297158</v>
+        <v>2281.015130217018</v>
       </c>
       <c r="V8" t="n">
-        <v>1799.963760953587</v>
+        <v>1949.952242873447</v>
       </c>
       <c r="W8" t="n">
-        <v>1799.963760953587</v>
+        <v>1597.183587603333</v>
       </c>
       <c r="X8" t="n">
-        <v>1426.498002692507</v>
+        <v>1223.717829342253</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934728</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
         <v>99.59950625323012</v>
@@ -4960,7 +4960,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9963436509397</v>
       </c>
       <c r="X10" t="n">
-        <v>639.4449077370028</v>
+        <v>438.9963436509397</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.6523285934728</v>
+        <v>438.9963436509397</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5136,10 +5136,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226425</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1256.035851039074</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1256.035851039074</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1256.035851039074</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1256.035851039074</v>
       </c>
       <c r="W13" t="n">
-        <v>974.1223921508996</v>
+        <v>1256.035851039074</v>
       </c>
       <c r="X13" t="n">
-        <v>746.1328412528823</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="Y13" t="n">
-        <v>746.1328412528823</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822455</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5373,10 +5373,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609658</v>
       </c>
       <c r="V16" t="n">
-        <v>1128.599447747086</v>
+        <v>731.317728355079</v>
       </c>
       <c r="W16" t="n">
-        <v>839.1822777101255</v>
+        <v>441.9005583181184</v>
       </c>
       <c r="X16" t="n">
-        <v>611.1927268121082</v>
+        <v>213.9110074201011</v>
       </c>
       <c r="Y16" t="n">
-        <v>390.400147668578</v>
+        <v>213.9110074201011</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1038.244483529058</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>783.5599953231707</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W19" t="n">
-        <v>494.14282528621</v>
+        <v>475.6246508103598</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.6010158349786</v>
+        <v>437.6964226305952</v>
       </c>
       <c r="C25" t="n">
-        <v>545.6648329070717</v>
+        <v>437.6964226305952</v>
       </c>
       <c r="D25" t="n">
-        <v>395.548193494736</v>
+        <v>287.5797832182594</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123425</v>
+        <v>139.6666896358663</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>139.6666896358663</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1117.042059808748</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V25" t="n">
-        <v>1117.042059808748</v>
+        <v>955.1031435655732</v>
       </c>
       <c r="W25" t="n">
-        <v>1117.042059808748</v>
+        <v>665.6859735286125</v>
       </c>
       <c r="X25" t="n">
-        <v>1117.042059808748</v>
+        <v>437.6964226305952</v>
       </c>
       <c r="Y25" t="n">
-        <v>896.2494806652182</v>
+        <v>437.6964226305952</v>
       </c>
     </row>
     <row r="26">
@@ -6218,31 +6218,31 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,10 +6409,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011507</v>
@@ -6424,10 +6424,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6525,43 +6525,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>559.3999450277928</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>806.1650729342575</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1113.48520621422</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.347833878253</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180914</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227177</v>
+        <v>750.8748194215243</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761814</v>
+        <v>637.6995017749882</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452163</v>
+        <v>543.3437276440236</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441938</v>
+        <v>451.1914993430014</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276537</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323875</v>
+        <v>1768.101513126952</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1646.602746129305</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1447.679123204789</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386979</v>
+        <v>1214.022818449199</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220512</v>
+        <v>1041.794132832552</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3479625715868</v>
+        <v>876.7624189703931</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823792</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6762,43 +6762,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.08876901822</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298183</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962216</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180914</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229676</v>
@@ -6841,67 +6841,67 @@
         <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.84894686497</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350131</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184158</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986525</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942118</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771665</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6999,37 +6999,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.71878111552</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395483</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059516</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278214</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184158</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942118</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,61 +7160,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7236,43 +7236,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110832</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229662</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506715</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083195</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504502</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184158</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986525</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942118</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771665</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010307</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823726</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514029</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795202</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7473,43 +7473,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126484</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571615</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636262</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643588</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184158</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986525</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942118</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771665</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333966</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>668.684674853563</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893006</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>245.860689527936</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.3376773609109</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618136</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730926</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155631</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987297522</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>148.2747143566505</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208018</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776705</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776707</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445199</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720672</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.409182577671</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.784283854452</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>67.43354706375621</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,10 +23473,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>19.11470203748632</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>64.30500338172017</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>171.7613411396974</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>51.71984429841044</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>231.3076615509218</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>124.4684662695529</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24415,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>129.729444815304</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523564</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>110.7503164423497</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.1775579625781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-8.120171329794153e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1265973.161754641</v>
+        <v>1280604.450904759</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>175963.0768819691</v>
+        <v>175963.076881969</v>
       </c>
       <c r="F2" t="n">
-        <v>175963.0768819691</v>
+        <v>175963.0768819689</v>
       </c>
       <c r="G2" t="n">
         <v>175963.076881969</v>
       </c>
       <c r="H2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="I2" t="n">
         <v>175963.076881969</v>
@@ -26338,22 +26338,22 @@
         <v>175963.076881969</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053713</v>
+        <v>183069.9618053712</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194642</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194639</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194639</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.398219464</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284653</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755732</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26442,22 +26442,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649874</v>
+        <v>47468.16806649888</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.3327936227</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362269</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362269</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.3327936227</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362281</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-662583.3363803164</v>
       </c>
       <c r="C6" t="n">
-        <v>-72615.45716577191</v>
+        <v>-72615.45716577204</v>
       </c>
       <c r="D6" t="n">
-        <v>-72615.45716577199</v>
+        <v>-72615.45716577204</v>
       </c>
       <c r="E6" t="n">
-        <v>-470487.831095946</v>
+        <v>-470585.2902219183</v>
       </c>
       <c r="F6" t="n">
-        <v>54672.20538095011</v>
+        <v>54574.74625497783</v>
       </c>
       <c r="G6" t="n">
-        <v>54672.20538095005</v>
+        <v>54574.74625497786</v>
       </c>
       <c r="H6" t="n">
-        <v>54672.2053809499</v>
+        <v>54574.74625497794</v>
       </c>
       <c r="I6" t="n">
-        <v>54672.20538095001</v>
+        <v>54574.74625497792</v>
       </c>
       <c r="J6" t="n">
-        <v>-121751.0138116429</v>
+        <v>-121848.472937615</v>
       </c>
       <c r="K6" t="n">
-        <v>-5189.020094196792</v>
+        <v>-5207.513832130496</v>
       </c>
       <c r="L6" t="n">
-        <v>24954.05280494904</v>
+        <v>24954.05280494914</v>
       </c>
       <c r="M6" t="n">
-        <v>-99504.05562802128</v>
+        <v>-99504.05562802142</v>
       </c>
       <c r="N6" t="n">
-        <v>35296.95960581597</v>
+        <v>35296.95960581575</v>
       </c>
       <c r="O6" t="n">
-        <v>35296.95960581585</v>
+        <v>35296.95960581575</v>
       </c>
       <c r="P6" t="n">
-        <v>-146875.2336187559</v>
+        <v>-8865.645697029904</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541017</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541017</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541016</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750894</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,23 +27376,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>269.0486060691496</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>134.5664173957376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>216.8777264409337</v>
+        <v>241.431528684612</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>345.9293048960114</v>
       </c>
       <c r="X5" t="n">
-        <v>96.09490770415198</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>59.49458941897376</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>133.8208662910791</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>81.62698238106449</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>55.69986667275472</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>212.4272231366704</v>
       </c>
       <c r="X10" t="n">
-        <v>137.9124196843</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855692</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964057</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964055</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.1875530044495</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304448</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927195</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540895</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104661</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354897</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354105</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127074</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215736</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724853</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813469</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361501</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196127</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065635</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733768</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351827</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36212,10 +36212,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>418.4946367192911</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>298.8501529445902</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178385</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686883</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768267</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686883</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520628</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595514</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095695</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086134</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352446</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502438</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414417</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336954</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520628</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595514</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095695</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086135</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352446</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502438</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414417</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.502597509196</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595514</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095695</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086134</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352446</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502437</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414416</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415018</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303336</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710908</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081127</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951481</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.606025510913</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349842</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560249</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504669</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091962</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520626</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595514</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095695</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086134</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352446</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502437</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414416</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
